--- a/biology/Zoologie/Cephalophus_nigrifrons/Cephalophus_nigrifrons.xlsx
+++ b/biology/Zoologie/Cephalophus_nigrifrons/Cephalophus_nigrifrons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Céphalophe à front noir
 Cephalophus nigrifrons, le Céphalophe à front noir, est une espèce africaine de mammifères de la famille des Bovidae.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre en Angola, au Burundi, au Cameroun, au Gabon, en Guinée équatoriale, au Kenya, au Nigeria, en Ouganda, au Rwanda, en République centrafricaine, en République du Congo et en république démocratique du Congo[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre en Angola, au Burundi, au Cameroun, au Gabon, en Guinée équatoriale, au Kenya, au Nigeria, en Ouganda, au Rwanda, en République centrafricaine, en République du Congo et en république démocratique du Congo.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (28 mai 2024)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (28 mai 2024) :
 Cephalophus nigrifrons fosteri St.Leger, 1934
 Cephalophus nigrifrons hooki St.Leger, 1934
 Cephalophus nigrifrons hypoxanthus Grubb &amp; Groves, 2002
@@ -581,10 +597,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cephalophus nigrifrons Gray, 1871[2].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Céphalophe à front noir[2],[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cephalophus nigrifrons Gray, 1871.
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Céphalophe à front noir,.
 </t>
         </is>
       </c>
